--- a/Mapping_Spreadsheets/03_Inherited_Properties.xlsx
+++ b/Mapping_Spreadsheets/03_Inherited_Properties.xlsx
@@ -1030,7 +1030,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1060,7 +1059,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1086,7 +1084,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1112,7 +1109,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1138,7 +1134,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1164,7 +1159,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1190,7 +1184,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1216,7 +1209,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1242,7 +1234,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1268,7 +1259,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1319,7 +1309,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1345,7 +1334,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1371,7 +1359,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1397,7 +1384,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1423,7 +1409,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1449,7 +1434,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1475,7 +1459,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1501,7 +1484,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1527,7 +1509,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1553,7 +1534,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1601,7 +1581,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1631,7 +1610,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1657,7 +1635,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1683,7 +1660,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1709,7 +1685,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1735,7 +1710,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1761,7 +1735,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1787,7 +1760,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1813,7 +1785,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1839,7 +1810,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
